--- a/IPEII/Tema 8 Ejercicio 156/Grafico.xlsx
+++ b/IPEII/Tema 8 Ejercicio 156/Grafico.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2º_ASIR\IPEII\Tema 8 Ejercicio 156\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A86A1BCC-E64C-4451-9E9E-F7D55708FB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C69BCB4-4CD7-4FF4-A55F-9A8294487B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{70C2EFC7-EB63-4019-9B2A-4DEF29630750}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{70C2EFC7-EB63-4019-9B2A-4DEF29630750}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>Coste Fijo</t>
   </si>
@@ -320,94 +309,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -584,94 +573,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>2250</c:v>
+                  <c:v>3250</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2500</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2750</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3250</c:v>
+                  <c:v>4250</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3750</c:v>
+                  <c:v>4750</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4250</c:v>
+                  <c:v>5250</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4500</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4750</c:v>
+                  <c:v>5750</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5250</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5500</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5750</c:v>
+                  <c:v>6750</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6000</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6250</c:v>
+                  <c:v>7250</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6500</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6750</c:v>
+                  <c:v>7750</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7250</c:v>
+                  <c:v>8250</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7500</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7750</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8000</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8250</c:v>
+                  <c:v>9250</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8500</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8750</c:v>
+                  <c:v>9750</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9250</c:v>
+                  <c:v>10250</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9500</c:v>
+                  <c:v>10500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1016,7 +1005,568 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$42:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DDD1-4B1F-9A23-157FD46EDB7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coste Fijo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$42:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DDD1-4B1F-9A23-157FD46EDB7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$F$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coste Variable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$F$42:$F$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DDD1-4B1F-9A23-157FD46EDB7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$G$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Costes Totales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$G$42:$G$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DDD1-4B1F-9A23-157FD46EDB7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$H$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ingresos Totales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$H$42:$H$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DDD1-4B1F-9A23-157FD46EDB7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="513735663"/>
+        <c:axId val="513735183"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="513735663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="513735183"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="513735183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="513735663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1572,6 +2122,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1605,6 +2671,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>33131</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B440C37-A56A-7509-DFBA-EF899B30EB03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1930,10 +3032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D124FC29-3C3B-409B-96F4-5A41F146F317}">
-  <dimension ref="D5:H35"/>
+  <dimension ref="D5:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1967,7 +3069,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F6">
         <f>D6*250</f>
@@ -1975,7 +3077,7 @@
       </c>
       <c r="G6">
         <f>E6+F6</f>
-        <v>2250</v>
+        <v>3250</v>
       </c>
       <c r="H6">
         <f>400*D6</f>
@@ -1987,7 +3089,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F7">
         <f>D7*250</f>
@@ -1995,7 +3097,7 @@
       </c>
       <c r="G7">
         <f>E7+F7</f>
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="H7">
         <f>400*D7</f>
@@ -2007,7 +3109,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F8">
         <f t="shared" ref="F8:F35" si="0">D8*250</f>
@@ -2015,7 +3117,7 @@
       </c>
       <c r="G8">
         <f t="shared" ref="G8:G35" si="1">E8+F8</f>
-        <v>2750</v>
+        <v>3750</v>
       </c>
       <c r="H8">
         <f t="shared" ref="H8:H35" si="2">400*D8</f>
@@ -2027,7 +3129,7 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -2035,7 +3137,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
@@ -2047,7 +3149,7 @@
         <v>5</v>
       </c>
       <c r="E10">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -2055,7 +3157,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>3250</v>
+        <v>4250</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
@@ -2067,7 +3169,7 @@
         <v>6</v>
       </c>
       <c r="E11">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -2075,7 +3177,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
@@ -2087,7 +3189,7 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -2095,7 +3197,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>3750</v>
+        <v>4750</v>
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
@@ -2107,7 +3209,7 @@
         <v>8</v>
       </c>
       <c r="E13">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -2115,7 +3217,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
@@ -2127,7 +3229,7 @@
         <v>9</v>
       </c>
       <c r="E14">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -2135,7 +3237,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>4250</v>
+        <v>5250</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
@@ -2147,7 +3249,7 @@
         <v>10</v>
       </c>
       <c r="E15">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
@@ -2155,7 +3257,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
@@ -2167,7 +3269,7 @@
         <v>11</v>
       </c>
       <c r="E16">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
@@ -2175,7 +3277,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
@@ -2187,7 +3289,7 @@
         <v>12</v>
       </c>
       <c r="E17">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
@@ -2195,7 +3297,7 @@
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
@@ -2207,7 +3309,7 @@
         <v>13</v>
       </c>
       <c r="E18">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
@@ -2215,7 +3317,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>6250</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
@@ -2227,7 +3329,7 @@
         <v>14</v>
       </c>
       <c r="E19">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
@@ -2235,7 +3337,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
@@ -2247,7 +3349,7 @@
         <v>15</v>
       </c>
       <c r="E20">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
@@ -2255,7 +3357,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
@@ -2267,7 +3369,7 @@
         <v>16</v>
       </c>
       <c r="E21">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
@@ -2275,7 +3377,7 @@
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
@@ -2287,7 +3389,7 @@
         <v>17</v>
       </c>
       <c r="E22">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
@@ -2295,7 +3397,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>6250</v>
+        <v>7250</v>
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
@@ -2307,7 +3409,7 @@
         <v>18</v>
       </c>
       <c r="E23">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
@@ -2315,7 +3417,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
@@ -2327,7 +3429,7 @@
         <v>19</v>
       </c>
       <c r="E24">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
@@ -2335,7 +3437,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
@@ -2347,7 +3449,7 @@
         <v>20</v>
       </c>
       <c r="E25">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
@@ -2355,7 +3457,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
@@ -2367,7 +3469,7 @@
         <v>21</v>
       </c>
       <c r="E26">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
@@ -2375,7 +3477,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
-        <v>7250</v>
+        <v>8250</v>
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
@@ -2387,7 +3489,7 @@
         <v>22</v>
       </c>
       <c r="E27">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
@@ -2395,7 +3497,7 @@
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
@@ -2407,7 +3509,7 @@
         <v>23</v>
       </c>
       <c r="E28">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
@@ -2415,7 +3517,7 @@
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="H28">
         <f t="shared" si="2"/>
@@ -2427,7 +3529,7 @@
         <v>24</v>
       </c>
       <c r="E29">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
@@ -2435,7 +3537,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
@@ -2447,7 +3549,7 @@
         <v>25</v>
       </c>
       <c r="E30">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
@@ -2455,7 +3557,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
-        <v>8250</v>
+        <v>9250</v>
       </c>
       <c r="H30">
         <f t="shared" si="2"/>
@@ -2467,7 +3569,7 @@
         <v>26</v>
       </c>
       <c r="E31">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
@@ -2475,7 +3577,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="H31">
         <f t="shared" si="2"/>
@@ -2487,7 +3589,7 @@
         <v>27</v>
       </c>
       <c r="E32">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
@@ -2495,7 +3597,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="1"/>
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="H32">
         <f t="shared" si="2"/>
@@ -2507,7 +3609,7 @@
         <v>28</v>
       </c>
       <c r="E33">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
@@ -2515,7 +3617,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="1"/>
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="H33">
         <f t="shared" si="2"/>
@@ -2527,7 +3629,7 @@
         <v>29</v>
       </c>
       <c r="E34">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
@@ -2535,7 +3637,7 @@
       </c>
       <c r="G34">
         <f t="shared" si="1"/>
-        <v>9250</v>
+        <v>10250</v>
       </c>
       <c r="H34">
         <f t="shared" si="2"/>
@@ -2547,7 +3649,7 @@
         <v>30</v>
       </c>
       <c r="E35">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
@@ -2555,11 +3657,108 @@
       </c>
       <c r="G35">
         <f t="shared" si="1"/>
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="H35">
         <f t="shared" si="2"/>
         <v>12000</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>3000</v>
+      </c>
+      <c r="F42">
+        <f>D42*3500</f>
+        <v>3500</v>
+      </c>
+      <c r="G42">
+        <f>E42+F42</f>
+        <v>6500</v>
+      </c>
+      <c r="H42">
+        <f>4500*D42</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>3000</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ref="F43:F45" si="3">D43*3500</f>
+        <v>7000</v>
+      </c>
+      <c r="G43">
+        <f t="shared" ref="G43:G45" si="4">E43+F43</f>
+        <v>10000</v>
+      </c>
+      <c r="H43">
+        <f t="shared" ref="H43:H45" si="5">4500*D43</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>3000</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="3"/>
+        <v>10500</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="4"/>
+        <v>13500</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="5"/>
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>3000</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="3"/>
+        <v>14000</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="4"/>
+        <v>17000</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="5"/>
+        <v>18000</v>
       </c>
     </row>
   </sheetData>
